--- a/airdrop.xlsx
+++ b/airdrop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyq/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyq/Contract/Tusima/tusima-airdrop-contracts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D0BC4C-9755-B44F-B142-6E33B8547BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5B42B-82BB-E847-B650-477065459254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="6340" windowWidth="28240" windowHeight="17440" xr2:uid="{C092D960-0F69-C84A-9370-2F4424A34D07}"/>
+    <workbookView xWindow="14200" yWindow="5060" windowWidth="28240" windowHeight="17440" xr2:uid="{C092D960-0F69-C84A-9370-2F4424A34D07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,55 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="3">
   <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f770</t>
+    <t>2500000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f771</t>
+    <t>0x24d443a1dA06267081A55179918ff1293b666512</t>
   </si>
   <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f772</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f773</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f774</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f775</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f776</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f777</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f778</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f779</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f780</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f781</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f782</t>
-  </si>
-  <si>
-    <t>0xAADb24c70F4e9967ba37f90dF2ABd025e2a3f783</t>
+    <t>0x24d443a1dA06267081A55179918ff1293b666512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,14 +68,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFB5CEA8"/>
+      <sz val="14"/>
+      <color rgb="FFE6EDF3"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -137,10 +100,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,125 +423,126 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="1" max="1" width="53" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>53.2</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
